--- a/outputs/c/_sponge_both.xlsx
+++ b/outputs/c/_sponge_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="193">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>reg</t>
   </si>
   <si>
@@ -588,10 +585,19 @@
     <t>regular</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>activity_2</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1398,19 +1404,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1048576"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1439,46 +1445,49 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="O1" t="s">
+        <v>188</v>
       </c>
       <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
         <v>186</v>
       </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>171</v>
@@ -1498,52 +1507,52 @@
         <v>1578</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>14</v>
-      </c>
-      <c r="T2">
+      <c r="U2">
         <v>70</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>138</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" t="s">
         <v>75</v>
       </c>
-      <c r="W2" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>228</v>
@@ -1563,52 +1572,52 @@
         <v>2770</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>228</v>
+      </c>
+      <c r="U3">
+        <v>2752</v>
+      </c>
+      <c r="V3">
+        <v>2770</v>
+      </c>
+      <c r="W3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>228</v>
-      </c>
-      <c r="T3">
-        <v>2752</v>
-      </c>
-      <c r="U3">
-        <v>2770</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>170</v>
@@ -1628,52 +1637,52 @@
         <v>1484</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="M4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
+      <c r="R4" t="s">
+        <v>9</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>170</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1452</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1484</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" t="s">
         <v>17</v>
       </c>
-      <c r="W4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -1693,52 +1702,52 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="M5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
       </c>
-      <c r="Q5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
+      <c r="R5" t="s">
+        <v>9</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>16</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>186</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>196</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" t="s">
         <v>19</v>
       </c>
-      <c r="W5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>394</v>
@@ -1758,52 +1767,52 @@
         <v>2944</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>23</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
         <v>152</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>190</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
-        <v>101</v>
-      </c>
-      <c r="X6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>283</v>
@@ -1823,52 +1832,52 @@
         <v>2942</v>
       </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
       <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="M7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>11</v>
       </c>
-      <c r="Q7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="R7" t="s">
+        <v>9</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>283</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2912</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2942</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" t="s">
         <v>24</v>
       </c>
-      <c r="W7" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>214</v>
@@ -1888,52 +1897,52 @@
         <v>2384</v>
       </c>
       <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
       <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>188</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="M8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>12</v>
       </c>
-      <c r="Q8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
+      <c r="R8" t="s">
+        <v>9</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>151</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1698</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1714</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
         <v>106</v>
       </c>
-      <c r="W8" t="s">
-        <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>63</v>
@@ -1953,52 +1962,52 @@
         <v>478</v>
       </c>
       <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
       <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>14</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
+      <c r="R9" t="s">
+        <v>9</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>63</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>468</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>478</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
         <v>28</v>
       </c>
-      <c r="W9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>589</v>
@@ -2018,52 +2027,52 @@
         <v>5106</v>
       </c>
       <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
       <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="M10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>17</v>
       </c>
-      <c r="Q10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="R10" t="s">
+        <v>9</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>569</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>4944</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4956</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
         <v>114</v>
       </c>
-      <c r="W10" t="s">
-        <v>115</v>
-      </c>
-      <c r="X10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>217</v>
@@ -2083,52 +2092,52 @@
         <v>984</v>
       </c>
       <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
       <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>188</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="M11" t="s">
+        <v>187</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>18</v>
       </c>
-      <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
+      <c r="R11" t="s">
+        <v>9</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>183</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>744</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>876</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
         <v>118</v>
       </c>
-      <c r="W11" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>349</v>
@@ -2148,52 +2157,52 @@
         <v>2456</v>
       </c>
       <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>188</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="M12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>19</v>
       </c>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
+      <c r="R12" t="s">
+        <v>9</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>349</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2424</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2456</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" t="s">
         <v>34</v>
       </c>
-      <c r="W12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>106</v>
@@ -2213,52 +2222,52 @@
         <v>774</v>
       </c>
       <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
       <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>188</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="M13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>20</v>
       </c>
-      <c r="Q13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
+      <c r="R13" t="s">
+        <v>9</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>41</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>260</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>262</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
         <v>136</v>
       </c>
-      <c r="W13" t="s">
-        <v>137</v>
-      </c>
-      <c r="X13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>337</v>
@@ -2278,52 +2287,52 @@
         <v>2980</v>
       </c>
       <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
       <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>188</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="M14" t="s">
+        <v>187</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>337</v>
+      </c>
+      <c r="U14">
+        <v>2890</v>
+      </c>
+      <c r="V14">
+        <v>2980</v>
+      </c>
+      <c r="W14" t="s">
         <v>38</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>337</v>
-      </c>
-      <c r="T14">
-        <v>2890</v>
-      </c>
-      <c r="U14">
-        <v>2980</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>39</v>
       </c>
-      <c r="W14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -2343,52 +2352,52 @@
         <v>118</v>
       </c>
       <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
       <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="M15" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>2</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+      <c r="U15">
         <v>38</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>7</v>
-      </c>
-      <c r="T15">
-        <v>38</v>
-      </c>
-      <c r="U15">
+      <c r="V15">
         <v>118</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s">
         <v>41</v>
       </c>
-      <c r="W15" t="s">
-        <v>42</v>
-      </c>
-      <c r="X15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>43</v>
@@ -2408,52 +2417,52 @@
         <v>888</v>
       </c>
       <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
       <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>188</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="M16" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>3</v>
       </c>
-      <c r="Q16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
+      <c r="R16" t="s">
+        <v>37</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>43</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>846</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>888</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" t="s">
         <v>43</v>
       </c>
-      <c r="W16" t="s">
-        <v>44</v>
-      </c>
-      <c r="X16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>273</v>
@@ -2473,52 +2482,52 @@
         <v>2418</v>
       </c>
       <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
       <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="M17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>4</v>
       </c>
-      <c r="Q17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
+      <c r="R17" t="s">
+        <v>37</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>273</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2352</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2418</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X17" t="s">
         <v>45</v>
       </c>
-      <c r="W17" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>30</v>
@@ -2538,52 +2547,52 @@
         <v>760</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="M18" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>6</v>
       </c>
-      <c r="Q18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
+      <c r="R18" t="s">
+        <v>37</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>30</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>752</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>760</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
+        <v>46</v>
+      </c>
+      <c r="X18" t="s">
         <v>47</v>
       </c>
-      <c r="W18" t="s">
-        <v>48</v>
-      </c>
-      <c r="X18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>89</v>
@@ -2603,52 +2612,52 @@
         <v>926</v>
       </c>
       <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
         <v>49</v>
       </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
       <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="M19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>8</v>
       </c>
-      <c r="Q19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
+      <c r="R19" t="s">
+        <v>37</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>19</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>200</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>206</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" t="s">
         <v>144</v>
       </c>
-      <c r="W19" t="s">
-        <v>145</v>
-      </c>
-      <c r="X19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>475</v>
@@ -2668,52 +2677,52 @@
         <v>3920</v>
       </c>
       <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
       <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>9</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
+      <c r="M20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>37</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>19</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>222</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>298</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" t="s">
         <v>146</v>
       </c>
-      <c r="W20" t="s">
-        <v>147</v>
-      </c>
-      <c r="X20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>129</v>
@@ -2733,52 +2742,52 @@
         <v>1356</v>
       </c>
       <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
         <v>53</v>
       </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
       <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" t="s">
-        <v>188</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="M21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>10</v>
       </c>
-      <c r="Q21" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
+      <c r="R21" t="s">
+        <v>37</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>129</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1316</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1356</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" t="s">
         <v>53</v>
       </c>
-      <c r="W21" t="s">
-        <v>54</v>
-      </c>
-      <c r="X21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2786,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>159</v>
@@ -2798,52 +2807,52 @@
         <v>1818</v>
       </c>
       <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
         <v>55</v>
       </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
       <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
         <v>13</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="M22" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>11</v>
       </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="R22" t="s">
+        <v>37</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>159</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1806</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1818</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" t="s">
         <v>55</v>
       </c>
-      <c r="W22" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -2863,52 +2872,52 @@
         <v>174</v>
       </c>
       <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
       <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
         <v>13</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" t="s">
-        <v>188</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="M23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>12</v>
       </c>
-      <c r="Q23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
+      <c r="R23" t="s">
+        <v>37</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>13</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>82</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>174</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" t="s">
         <v>57</v>
       </c>
-      <c r="W23" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2916,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>393</v>
@@ -2928,52 +2937,52 @@
         <v>1490</v>
       </c>
       <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
         <v>59</v>
       </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
       <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="P24">
+      <c r="M24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>13</v>
       </c>
-      <c r="Q24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
+      <c r="R24" t="s">
+        <v>37</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>393</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1486</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1490</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
+        <v>58</v>
+      </c>
+      <c r="X24" t="s">
         <v>59</v>
       </c>
-      <c r="W24" t="s">
-        <v>60</v>
-      </c>
-      <c r="X24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>231</v>
@@ -2993,52 +3002,52 @@
         <v>1780</v>
       </c>
       <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
         <v>61</v>
       </c>
-      <c r="H25" t="s">
-        <v>62</v>
-      </c>
       <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>14</v>
       </c>
-      <c r="L25" t="s">
-        <v>188</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>14</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
+      <c r="R25" t="s">
+        <v>37</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>224</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1640</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1644</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
+        <v>159</v>
+      </c>
+      <c r="X25" t="s">
         <v>160</v>
       </c>
-      <c r="W25" t="s">
-        <v>161</v>
-      </c>
-      <c r="X25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>118</v>
@@ -3058,52 +3067,52 @@
         <v>2462</v>
       </c>
       <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
         <v>63</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" t="s">
-        <v>188</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="M26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>16</v>
       </c>
-      <c r="Q26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
+      <c r="R26" t="s">
+        <v>37</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>118</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2460</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2462</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
+        <v>62</v>
+      </c>
+      <c r="X26" t="s">
         <v>63</v>
       </c>
-      <c r="W26" t="s">
-        <v>64</v>
-      </c>
-      <c r="X26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>49</v>
@@ -3123,52 +3132,52 @@
         <v>964</v>
       </c>
       <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
         <v>66</v>
       </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
       <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" t="s">
-        <v>188</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="P27">
+      <c r="M27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>17</v>
       </c>
-      <c r="Q27" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
+      <c r="R27" t="s">
+        <v>37</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>6</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>66</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>92</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
+        <v>163</v>
+      </c>
+      <c r="X27" t="s">
         <v>164</v>
       </c>
-      <c r="W27" t="s">
-        <v>165</v>
-      </c>
-      <c r="X27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>806</v>
@@ -3188,52 +3197,52 @@
         <v>4738</v>
       </c>
       <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" t="s">
         <v>68</v>
       </c>
-      <c r="H28" t="s">
-        <v>69</v>
-      </c>
       <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
-        <v>188</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="M28" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>18</v>
       </c>
-      <c r="Q28" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
+      <c r="R28" t="s">
+        <v>37</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>88</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>514</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>588</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
+        <v>165</v>
+      </c>
+      <c r="X28" t="s">
         <v>166</v>
       </c>
-      <c r="W28" t="s">
-        <v>167</v>
-      </c>
-      <c r="X28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>36</v>
@@ -3253,52 +3262,52 @@
         <v>350</v>
       </c>
       <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
         <v>70</v>
       </c>
-      <c r="H29" t="s">
-        <v>71</v>
-      </c>
       <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
         <v>13</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s">
-        <v>188</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+      <c r="M29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>19</v>
       </c>
-      <c r="Q29" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
+      <c r="R29" t="s">
+        <v>37</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>36</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>308</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>350</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
+        <v>69</v>
+      </c>
+      <c r="X29" t="s">
         <v>70</v>
       </c>
-      <c r="W29" t="s">
-        <v>71</v>
-      </c>
-      <c r="X29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -3318,78 +3327,78 @@
         <v>3562</v>
       </c>
       <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
         <v>72</v>
       </c>
-      <c r="H30" t="s">
-        <v>73</v>
-      </c>
       <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
         <v>13</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" t="s">
-        <v>188</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="P30">
+      <c r="M30" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="Q30" t="s">
-        <v>38</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
+      <c r="R30" t="s">
+        <v>37</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>6</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3560</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3562</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s">
         <v>72</v>
       </c>
-      <c r="W30" t="s">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -3409,10 +3418,10 @@
         <v>138</v>
       </c>
       <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
         <v>75</v>
-      </c>
-      <c r="H32" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>71</v>
@@ -3435,10 +3444,10 @@
         <v>560</v>
       </c>
       <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
         <v>77</v>
-      </c>
-      <c r="H33" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3449,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>83</v>
@@ -3461,10 +3470,10 @@
         <v>688</v>
       </c>
       <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
         <v>79</v>
-      </c>
-      <c r="H34" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3475,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>95</v>
@@ -3487,10 +3496,10 @@
         <v>776</v>
       </c>
       <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
         <v>81</v>
-      </c>
-      <c r="H35" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3501,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>107</v>
@@ -3513,10 +3522,10 @@
         <v>862</v>
       </c>
       <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s">
         <v>83</v>
-      </c>
-      <c r="H36" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3527,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>163</v>
@@ -3539,10 +3548,10 @@
         <v>1452</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3553,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>180</v>
@@ -3565,10 +3574,10 @@
         <v>1678</v>
       </c>
       <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
         <v>86</v>
-      </c>
-      <c r="H38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3579,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>197</v>
@@ -3591,10 +3600,10 @@
         <v>1878</v>
       </c>
       <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
         <v>88</v>
-      </c>
-      <c r="H39" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3605,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>206</v>
@@ -3617,10 +3626,10 @@
         <v>1676</v>
       </c>
       <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
         <v>90</v>
-      </c>
-      <c r="H40" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3631,7 +3640,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>274</v>
@@ -3643,10 +3652,10 @@
         <v>2272</v>
       </c>
       <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
         <v>92</v>
-      </c>
-      <c r="H41" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3657,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>304</v>
@@ -3669,10 +3678,10 @@
         <v>2682</v>
       </c>
       <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
         <v>94</v>
-      </c>
-      <c r="H42" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3683,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>195</v>
@@ -3695,10 +3704,10 @@
         <v>2310</v>
       </c>
       <c r="G43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
         <v>96</v>
-      </c>
-      <c r="H43" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3709,7 +3718,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>225</v>
@@ -3721,10 +3730,10 @@
         <v>2662</v>
       </c>
       <c r="G44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" t="s">
         <v>98</v>
-      </c>
-      <c r="H44" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3735,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>23</v>
@@ -3747,10 +3756,10 @@
         <v>190</v>
       </c>
       <c r="G45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" t="s">
         <v>100</v>
-      </c>
-      <c r="H45" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3761,7 +3770,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <v>438</v>
@@ -3773,10 +3782,10 @@
         <v>3266</v>
       </c>
       <c r="G46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" t="s">
         <v>102</v>
-      </c>
-      <c r="H46" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,7 +3796,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>498</v>
@@ -3799,10 +3808,10 @@
         <v>3892</v>
       </c>
       <c r="G47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" t="s">
         <v>104</v>
-      </c>
-      <c r="H47" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3813,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>151</v>
@@ -3825,10 +3834,10 @@
         <v>1714</v>
       </c>
       <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
         <v>106</v>
-      </c>
-      <c r="H48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3839,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>420</v>
@@ -3851,10 +3860,10 @@
         <v>3572</v>
       </c>
       <c r="G49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" t="s">
         <v>108</v>
-      </c>
-      <c r="H49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3865,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>426</v>
@@ -3877,10 +3886,10 @@
         <v>3650</v>
       </c>
       <c r="G50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" t="s">
         <v>110</v>
-      </c>
-      <c r="H50" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3891,7 +3900,7 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>439</v>
@@ -3903,10 +3912,10 @@
         <v>3720</v>
       </c>
       <c r="G51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
         <v>112</v>
-      </c>
-      <c r="H51" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3917,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>569</v>
@@ -3929,10 +3938,10 @@
         <v>4956</v>
       </c>
       <c r="G52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" t="s">
         <v>114</v>
-      </c>
-      <c r="H52" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3943,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>593</v>
@@ -3955,10 +3964,10 @@
         <v>5114</v>
       </c>
       <c r="G53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" t="s">
         <v>116</v>
-      </c>
-      <c r="H53" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3969,7 +3978,7 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>183</v>
@@ -3981,10 +3990,10 @@
         <v>876</v>
       </c>
       <c r="G54" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
         <v>118</v>
-      </c>
-      <c r="H54" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3995,7 +4004,7 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>425</v>
@@ -4007,10 +4016,10 @@
         <v>1980</v>
       </c>
       <c r="G55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" t="s">
         <v>120</v>
-      </c>
-      <c r="H55" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4021,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>498</v>
@@ -4033,10 +4042,10 @@
         <v>2300</v>
       </c>
       <c r="G56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" t="s">
         <v>122</v>
-      </c>
-      <c r="H56" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,7 +4056,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>379</v>
@@ -4059,10 +4068,10 @@
         <v>2648</v>
       </c>
       <c r="G57" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" t="s">
         <v>124</v>
-      </c>
-      <c r="H57" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,7 +4082,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>442</v>
@@ -4085,10 +4094,10 @@
         <v>3230</v>
       </c>
       <c r="G58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" t="s">
         <v>126</v>
-      </c>
-      <c r="H58" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4099,7 +4108,7 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>454</v>
@@ -4111,10 +4120,10 @@
         <v>3398</v>
       </c>
       <c r="G59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" t="s">
         <v>128</v>
-      </c>
-      <c r="H59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4125,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>480</v>
@@ -4137,10 +4146,10 @@
         <v>3802</v>
       </c>
       <c r="G60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" t="s">
         <v>130</v>
-      </c>
-      <c r="H60" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4151,7 +4160,7 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>484</v>
@@ -4163,10 +4172,10 @@
         <v>3854</v>
       </c>
       <c r="G61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" t="s">
         <v>132</v>
-      </c>
-      <c r="H61" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4177,7 +4186,7 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>488</v>
@@ -4189,10 +4198,10 @@
         <v>3924</v>
       </c>
       <c r="G62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
         <v>134</v>
-      </c>
-      <c r="H62" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>41</v>
@@ -4215,10 +4224,10 @@
         <v>262</v>
       </c>
       <c r="G63" t="s">
+        <v>135</v>
+      </c>
+      <c r="H63" t="s">
         <v>136</v>
-      </c>
-      <c r="H63" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4229,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>409</v>
@@ -4241,10 +4250,10 @@
         <v>2694</v>
       </c>
       <c r="G64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" t="s">
         <v>138</v>
-      </c>
-      <c r="H64" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4255,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65">
         <v>355</v>
@@ -4267,10 +4276,10 @@
         <v>3290</v>
       </c>
       <c r="G65" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" t="s">
         <v>140</v>
-      </c>
-      <c r="H65" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4281,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66">
         <v>25</v>
@@ -4293,10 +4302,10 @@
         <v>324</v>
       </c>
       <c r="G66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" t="s">
         <v>142</v>
-      </c>
-      <c r="H66" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4307,7 +4316,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>19</v>
@@ -4319,10 +4328,10 @@
         <v>206</v>
       </c>
       <c r="G67" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" t="s">
         <v>144</v>
-      </c>
-      <c r="H67" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4333,7 +4342,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68">
         <v>19</v>
@@ -4345,10 +4354,10 @@
         <v>298</v>
       </c>
       <c r="G68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" t="s">
         <v>146</v>
-      </c>
-      <c r="H68" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4359,7 +4368,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D69">
         <v>504</v>
@@ -4371,10 +4380,10 @@
         <v>4320</v>
       </c>
       <c r="G69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" t="s">
         <v>148</v>
-      </c>
-      <c r="H69" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4385,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D70">
         <v>563</v>
@@ -4397,10 +4406,10 @@
         <v>4904</v>
       </c>
       <c r="G70" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" t="s">
         <v>150</v>
-      </c>
-      <c r="H70" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4411,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>643</v>
@@ -4423,10 +4432,10 @@
         <v>5532</v>
       </c>
       <c r="G71" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" t="s">
         <v>152</v>
-      </c>
-      <c r="H71" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4437,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72">
         <v>794</v>
@@ -4449,10 +4458,10 @@
         <v>6472</v>
       </c>
       <c r="G72" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" t="s">
         <v>154</v>
-      </c>
-      <c r="H72" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4463,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73">
         <v>297</v>
@@ -4475,10 +4484,10 @@
         <v>2708</v>
       </c>
       <c r="G73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
         <v>156</v>
-      </c>
-      <c r="H73" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,7 +4498,7 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74">
         <v>398</v>
@@ -4501,10 +4510,10 @@
         <v>1524</v>
       </c>
       <c r="G74" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" t="s">
         <v>158</v>
-      </c>
-      <c r="H74" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,7 +4524,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75">
         <v>224</v>
@@ -4527,10 +4536,10 @@
         <v>1644</v>
       </c>
       <c r="G75" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" t="s">
         <v>160</v>
-      </c>
-      <c r="H75" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,7 +4550,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D76">
         <v>254</v>
@@ -4553,10 +4562,10 @@
         <v>1828</v>
       </c>
       <c r="G76" t="s">
+        <v>161</v>
+      </c>
+      <c r="H76" t="s">
         <v>162</v>
-      </c>
-      <c r="H76" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,7 +4576,7 @@
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -4579,10 +4588,10 @@
         <v>92</v>
       </c>
       <c r="G77" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" t="s">
         <v>164</v>
-      </c>
-      <c r="H77" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78">
         <v>88</v>
@@ -4605,10 +4614,10 @@
         <v>588</v>
       </c>
       <c r="G78" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" t="s">
         <v>166</v>
-      </c>
-      <c r="H78" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4619,7 +4628,7 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79">
         <v>338</v>
@@ -4631,10 +4640,10 @@
         <v>1816</v>
       </c>
       <c r="G79" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" t="s">
         <v>168</v>
-      </c>
-      <c r="H79" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4645,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80">
         <v>374</v>
@@ -4657,10 +4666,10 @@
         <v>1944</v>
       </c>
       <c r="G80" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" t="s">
         <v>170</v>
-      </c>
-      <c r="H80" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,7 +4680,7 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D81">
         <v>405</v>
@@ -4683,10 +4692,10 @@
         <v>2106</v>
       </c>
       <c r="G81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" t="s">
         <v>172</v>
-      </c>
-      <c r="H81" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,7 +4706,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D82">
         <v>502</v>
@@ -4709,10 +4718,10 @@
         <v>2452</v>
       </c>
       <c r="G82" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" t="s">
         <v>174</v>
-      </c>
-      <c r="H82" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4723,7 +4732,7 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83">
         <v>623</v>
@@ -4735,10 +4744,10 @@
         <v>3256</v>
       </c>
       <c r="G83" t="s">
+        <v>175</v>
+      </c>
+      <c r="H83" t="s">
         <v>176</v>
-      </c>
-      <c r="H83" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4749,7 +4758,7 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84">
         <v>753</v>
@@ -4761,10 +4770,10 @@
         <v>4458</v>
       </c>
       <c r="G84" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" t="s">
         <v>178</v>
-      </c>
-      <c r="H84" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4775,7 +4784,7 @@
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85">
         <v>764</v>
@@ -4787,10 +4796,10 @@
         <v>4490</v>
       </c>
       <c r="G85" t="s">
+        <v>179</v>
+      </c>
+      <c r="H85" t="s">
         <v>180</v>
-      </c>
-      <c r="H85" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4801,7 +4810,7 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86">
         <v>106</v>
@@ -4813,10 +4822,10 @@
         <v>842</v>
       </c>
       <c r="G86" t="s">
+        <v>181</v>
+      </c>
+      <c r="H86" t="s">
         <v>182</v>
-      </c>
-      <c r="H86" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4827,7 +4836,7 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87">
         <v>283</v>
@@ -4839,10 +4848,10 @@
         <v>2330</v>
       </c>
       <c r="G87" t="s">
+        <v>183</v>
+      </c>
+      <c r="H87" t="s">
         <v>184</v>
-      </c>
-      <c r="H87" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
